--- a/Бабки НР.xlsx
+++ b/Бабки НР.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,18 +494,24 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="C11">
+        <v>550</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -560,9 +566,12 @@
       <c r="B16" t="s">
         <v>12</v>
       </c>
+      <c r="C16">
+        <v>550</v>
+      </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>-500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -571,11 +580,11 @@
       </c>
       <c r="C18">
         <f>SUM(C4:C16)</f>
-        <v>8950</v>
+        <v>11050</v>
       </c>
       <c r="D18">
         <f>(C18 - 6500)</f>
-        <v>2450</v>
+        <v>4550</v>
       </c>
     </row>
   </sheetData>
